--- a/data/trans_dic/P33_1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P33_1_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7047622397996067</v>
+        <v>0.7048173224858872</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6492482244982807</v>
+        <v>0.6497160360730011</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7467502657473124</v>
+        <v>0.7471391810360033</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6742169595899523</v>
+        <v>0.6700916887909695</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.60112983880986</v>
+        <v>0.601885863114743</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5904279934129479</v>
+        <v>0.5911612361194408</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6629052210479764</v>
+        <v>0.6666347546924336</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6147758236287305</v>
+        <v>0.6152514162523551</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6499027380579818</v>
+        <v>0.6529047892840368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6297126421396503</v>
+        <v>0.6279440816788546</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7122687303959861</v>
+        <v>0.7114382568213402</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.65308670953006</v>
+        <v>0.6509362162557381</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7777912999232134</v>
+        <v>0.7771332903286535</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7090074286508136</v>
+        <v>0.7093312884841699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7991365897257047</v>
+        <v>0.7965594768933472</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7629702596060164</v>
+        <v>0.7571529173457378</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6650943900620608</v>
+        <v>0.6666133919085703</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6516008618272776</v>
+        <v>0.6520534174548777</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7210894783569081</v>
+        <v>0.7185177835264221</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6833770112582492</v>
+        <v>0.682436579128113</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6982264612209674</v>
+        <v>0.6985727633963896</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6708270831448462</v>
+        <v>0.6713612926820633</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7493597663087302</v>
+        <v>0.7495750911979098</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7076075080147264</v>
+        <v>0.7059144232986188</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.7480837771203652</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7477066813463783</v>
+        <v>0.7477066813463781</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7840630186131644</v>
+        <v>0.7859869643014523</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7379530021304747</v>
+        <v>0.7365807798301046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7459926010497481</v>
+        <v>0.7465672352625402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7646064326857372</v>
+        <v>0.7679167826759128</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7357188233591014</v>
+        <v>0.7350452740087743</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6533534260369331</v>
+        <v>0.6527223411686929</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6941374698874249</v>
+        <v>0.6912452504888795</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6851609486851271</v>
+        <v>0.6854089329942863</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7674991477396016</v>
+        <v>0.7654700642078727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6995279071996692</v>
+        <v>0.699857516140422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7255907055167472</v>
+        <v>0.7277729705771122</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7305471684619339</v>
+        <v>0.7277642927578741</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8325048965447597</v>
+        <v>0.8336825711244827</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7949940413682822</v>
+        <v>0.7928927737363017</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8018242951753504</v>
+        <v>0.8040997243381768</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8201978052403878</v>
+        <v>0.8197372997143536</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.789544131940897</v>
+        <v>0.7871638449736258</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7107601943881016</v>
+        <v>0.7112319560599648</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7509453802511906</v>
+        <v>0.7512760649926916</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7313981380801505</v>
+        <v>0.7322083037042836</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8038873762449836</v>
+        <v>0.8025655787651677</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7411450135923836</v>
+        <v>0.7402688913298634</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.768657749317076</v>
+        <v>0.7688051864291324</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7658277511069033</v>
+        <v>0.7653918546364232</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7856226146256603</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7740161825075869</v>
+        <v>0.774016182507587</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.8504369226846108</v>
@@ -957,7 +957,7 @@
         <v>0.7370342376220762</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7337565326648542</v>
+        <v>0.7337565326648544</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8533761932758948</v>
@@ -969,7 +969,7 @@
         <v>0.7621818621251176</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7539154846831642</v>
+        <v>0.7539154846831643</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8323922408482111</v>
+        <v>0.8324682768403816</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7543031059678791</v>
+        <v>0.7556013723949528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7578687925876155</v>
+        <v>0.7534073627847779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7470111848722586</v>
+        <v>0.7435201117050276</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.826692672938325</v>
+        <v>0.8253486767834232</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6886875894103223</v>
+        <v>0.688990512152316</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7059911895407087</v>
+        <v>0.702805334118606</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7093483920550294</v>
+        <v>0.7100726189005446</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8372210235592703</v>
+        <v>0.8377618295229297</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.731170826679848</v>
+        <v>0.7327654767343288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7372480315222051</v>
+        <v>0.7402524393445253</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7375291816164885</v>
+        <v>0.7348268412087678</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8757835709817843</v>
+        <v>0.8785291974014913</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8118599414344648</v>
+        <v>0.811579786784359</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8134194632325407</v>
+        <v>0.8127602350901566</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8012745360156613</v>
+        <v>0.8006926638619769</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8712647203246227</v>
+        <v>0.8705468945603602</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7500300204352448</v>
+        <v>0.7504170356749389</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7685702256947098</v>
+        <v>0.7668913485183261</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7553147618297339</v>
+        <v>0.756247219105511</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8682890857537444</v>
+        <v>0.8689589932407026</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7722742576680111</v>
+        <v>0.7732322699677624</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7821574486889394</v>
+        <v>0.7829772175320544</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7709157785417126</v>
+        <v>0.7723483733658849</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7911568982138025</v>
+        <v>0.7877570619723608</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6960045760408282</v>
+        <v>0.6965866552917794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6666359337666574</v>
+        <v>0.6702167601347754</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6831531403564379</v>
+        <v>0.6822582110556105</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7843811943486242</v>
+        <v>0.7870659212180658</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6642004439518671</v>
+        <v>0.66715529188978</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.676529512572739</v>
+        <v>0.6705429154408749</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.626520609084143</v>
+        <v>0.6261201846250325</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8012353869573656</v>
+        <v>0.8003350481293382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6965313894669839</v>
+        <v>0.6958122211403353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6860196994760492</v>
+        <v>0.6856060359266966</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6624368271459389</v>
+        <v>0.6660413892441979</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8611380823425969</v>
+        <v>0.8626541972980953</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.780424029303184</v>
+        <v>0.7805360831059235</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7504695974623303</v>
+        <v>0.7541555484491734</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7430753711228165</v>
+        <v>0.7442747872267022</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8691641603732497</v>
+        <v>0.871201022833521</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.758661645081277</v>
+        <v>0.7539436515760622</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7582868471898226</v>
+        <v>0.7613727264706904</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6833540256593449</v>
+        <v>0.6833064005919061</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8555240849003337</v>
+        <v>0.8564739656292488</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7552668441263252</v>
+        <v>0.7591730352076882</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7446974409906036</v>
+        <v>0.7439070742259635</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.706041580768312</v>
+        <v>0.7073970780772166</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7681822683754836</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.754352767446362</v>
+        <v>0.7543527674463621</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7598159292018889</v>
@@ -1229,7 +1229,7 @@
         <v>0.7146142427801764</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6927732820469243</v>
+        <v>0.6927732820469246</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7873517457830626</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8013117439262256</v>
+        <v>0.7997197554182383</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7249052403239823</v>
+        <v>0.7240523635109224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.753682189941341</v>
+        <v>0.7533824170446335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7374949146891158</v>
+        <v>0.7383177137136402</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7438185256087555</v>
+        <v>0.7453194205981309</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.659734728785662</v>
+        <v>0.6587611377011271</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.698646183296219</v>
+        <v>0.6979604791916636</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6789103623713394</v>
+        <v>0.6799575597217261</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7770130582444199</v>
+        <v>0.7767195396727257</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6969147732333703</v>
+        <v>0.6962414730955538</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7303752790124456</v>
+        <v>0.729843397230183</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7130852690200331</v>
+        <v>0.7104548244108548</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8286502192511221</v>
+        <v>0.8289283451893167</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7560323630070191</v>
+        <v>0.7564568286032184</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.78265878964261</v>
+        <v>0.7812389446330936</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7691759622592238</v>
+        <v>0.769706319804602</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7739762410293595</v>
+        <v>0.7766215107152078</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6920465963182174</v>
+        <v>0.6894537621751883</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7295048081066533</v>
+        <v>0.7287812851590502</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.705541350805493</v>
+        <v>0.7056612962084626</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7976001050474445</v>
+        <v>0.7976863631509117</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7188792999300699</v>
+        <v>0.7180343044855814</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.751030376247805</v>
+        <v>0.7505872593908317</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7331662205109424</v>
+        <v>0.7313852438285128</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>406727</v>
+        <v>406759</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>676230</v>
+        <v>676717</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>840312</v>
+        <v>840750</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>322118</v>
+        <v>320147</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>552363</v>
+        <v>553057</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>660657</v>
+        <v>661478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>831479</v>
+        <v>836157</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>368646</v>
+        <v>368931</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>972245</v>
+        <v>976736</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1360497</v>
+        <v>1356676</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1694906</v>
+        <v>1692930</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>703642</v>
+        <v>701325</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>448873</v>
+        <v>448494</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>738472</v>
+        <v>738810</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>899262</v>
+        <v>896362</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>364521</v>
+        <v>361742</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>611138</v>
+        <v>612534</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>729106</v>
+        <v>729613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>904460</v>
+        <v>901234</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>409782</v>
+        <v>409218</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1044537</v>
+        <v>1045055</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1449325</v>
+        <v>1450479</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1783168</v>
+        <v>1783680</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>762383</v>
+        <v>760559</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>838185</v>
+        <v>840242</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>717368</v>
+        <v>716034</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>676233</v>
+        <v>676754</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>679219</v>
+        <v>682160</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>775100</v>
+        <v>774390</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>714358</v>
+        <v>713668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>696554</v>
+        <v>693652</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>722854</v>
+        <v>723115</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1629059</v>
+        <v>1624752</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1444859</v>
+        <v>1445540</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1385856</v>
+        <v>1390025</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1419700</v>
+        <v>1414292</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>889971</v>
+        <v>891230</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>772818</v>
+        <v>770775</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>726844</v>
+        <v>728907</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>728602</v>
+        <v>728193</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>831806</v>
+        <v>829298</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>777125</v>
+        <v>777641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>753560</v>
+        <v>753892</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>771635</v>
+        <v>772489</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1706295</v>
+        <v>1703490</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1530818</v>
+        <v>1529008</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1468113</v>
+        <v>1468395</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1488262</v>
+        <v>1487415</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>918024</v>
+        <v>918108</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>665370</v>
+        <v>666515</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>624301</v>
+        <v>620626</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>775599</v>
+        <v>771974</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>816023</v>
+        <v>814696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>600843</v>
+        <v>601107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>542093</v>
+        <v>539647</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>734366</v>
+        <v>735116</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1749764</v>
+        <v>1750895</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1282872</v>
+        <v>1285670</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1173409</v>
+        <v>1178191</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1529294</v>
+        <v>1523691</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>965879</v>
+        <v>968907</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>716141</v>
+        <v>715894</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>670062</v>
+        <v>669519</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>831939</v>
+        <v>831334</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>860019</v>
+        <v>859311</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>654361</v>
+        <v>654698</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>590144</v>
+        <v>588855</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>781954</v>
+        <v>782919</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1814696</v>
+        <v>1816096</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1354990</v>
+        <v>1356671</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1244887</v>
+        <v>1246192</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1598522</v>
+        <v>1601493</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>344056</v>
+        <v>342577</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>348780</v>
+        <v>349072</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>336635</v>
+        <v>338443</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>665588</v>
+        <v>664716</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>262277</v>
+        <v>263174</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>297965</v>
+        <v>299291</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>329218</v>
+        <v>326305</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>563021</v>
+        <v>562661</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>616351</v>
+        <v>615659</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>661513</v>
+        <v>660830</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>680260</v>
+        <v>679850</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1240701</v>
+        <v>1247452</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>374489</v>
+        <v>375148</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>391085</v>
+        <v>391141</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>378969</v>
+        <v>380830</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>723969</v>
+        <v>725138</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>290626</v>
+        <v>291307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>340341</v>
+        <v>338224</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>369004</v>
+        <v>370505</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>614094</v>
+        <v>614051</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>658113</v>
+        <v>658843</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>717296</v>
+        <v>721006</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>738445</v>
+        <v>737661</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1322370</v>
+        <v>1324909</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2551289</v>
+        <v>2546221</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2462416</v>
+        <v>2459519</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2532761</v>
+        <v>2531754</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2491736</v>
+        <v>2494516</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2450040</v>
+        <v>2454984</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2331088</v>
+        <v>2327647</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2453822</v>
+        <v>2451414</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2436318</v>
+        <v>2440076</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5033303</v>
+        <v>5031402</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4829794</v>
+        <v>4825128</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5019701</v>
+        <v>5016045</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4968222</v>
+        <v>4949895</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2638332</v>
+        <v>2639217</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2568151</v>
+        <v>2569593</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2630137</v>
+        <v>2625366</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2598775</v>
+        <v>2600567</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2549376</v>
+        <v>2558089</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2445257</v>
+        <v>2436096</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2562205</v>
+        <v>2559664</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2531885</v>
+        <v>2532316</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5166661</v>
+        <v>5167220</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4982014</v>
+        <v>4976158</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5161658</v>
+        <v>5158613</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5108130</v>
+        <v>5095722</v>
       </c>
     </row>
     <row r="24">
